--- a/БД.xlsx
+++ b/БД.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>Категория</t>
   </si>
@@ -90,69 +91,41 @@
     <t>ITEM_COLOR</t>
   </si>
   <si>
-    <t xml:space="preserve">INT NOT NULL PRIMARY KEY </t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>VARCHAR(30)</t>
-  </si>
-  <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
-    <t>INT NOT NULL</t>
-  </si>
-  <si>
-    <t>VARCHAR(40)</t>
-  </si>
-  <si>
-    <t>MEDIUMINT</t>
-  </si>
-  <si>
-    <t>SMALLINT NOT NULL</t>
-  </si>
-  <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>NUMBER(3)</t>
   </si>
   <si>
     <t>NCHAR(500)</t>
   </si>
   <si>
-    <r>
-      <t>TIMESTAMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-        <charset val="204"/>
-      </rPr>
-      <t>WITH LOCAL TIME ZONE</t>
-    </r>
+    <t>VARCHAR2(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUMBER PRIMARY KEY </t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>NUMBER(6)</t>
+  </si>
+  <si>
+    <t>VARCHAR2(30)</t>
+  </si>
+  <si>
+    <t>NUMBER(2)</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +145,6 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -694,7 +660,7 @@
   <dimension ref="J11:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,13 +692,13 @@
     </row>
     <row r="12" spans="13:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M12" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>4</v>
@@ -741,18 +707,18 @@
         <v>8</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="13:19" x14ac:dyDescent="0.25">
       <c r="M13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>25</v>
+      <c r="O13" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>5</v>
@@ -761,12 +727,12 @@
         <v>4</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="O14" s="5" t="s">
-        <v>33</v>
+      <c r="O14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>6</v>
@@ -775,44 +741,44 @@
         <v>9</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="O15" s="5" t="s">
-        <v>31</v>
+      <c r="O15" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="13:19" x14ac:dyDescent="0.25">
-      <c r="O16" s="5" t="s">
-        <v>26</v>
+      <c r="O16" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="O17" s="5" t="s">
-        <v>26</v>
+      <c r="O17" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="O18" s="5" t="s">
-        <v>32</v>
+      <c r="O18" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="O19" s="5" t="s">
-        <v>27</v>
+      <c r="O19" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>1</v>
@@ -823,8 +789,8 @@
       <c r="U19" s="5"/>
     </row>
     <row r="20" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="O20" s="5" t="s">
-        <v>27</v>
+      <c r="O20" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>15</v>
@@ -833,12 +799,12 @@
         <v>17</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:21" x14ac:dyDescent="0.25">
-      <c r="O21" s="5" t="s">
-        <v>28</v>
+      <c r="O21" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>22</v>
@@ -847,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:21" x14ac:dyDescent="0.25">
@@ -855,7 +821,7 @@
         <v>19</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:21" x14ac:dyDescent="0.25">
@@ -871,7 +837,7 @@
     </row>
     <row r="24" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J24" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>15</v>
@@ -880,12 +846,12 @@
         <v>18</v>
       </c>
       <c r="U24" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J25" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>21</v>

--- a/БД.xlsx
+++ b/БД.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Категория</t>
   </si>
@@ -119,6 +118,36 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>Пользователи</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>USER_PASSWORD</t>
+  </si>
+  <si>
+    <t>USER_ROLE</t>
+  </si>
+  <si>
+    <t>DEFAULT USER</t>
+  </si>
+  <si>
+    <t>Items view</t>
+  </si>
+  <si>
+    <t>NUMBER PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>VARCHAR2(40) CHECK</t>
+  </si>
+  <si>
+    <t>ARTICUL</t>
   </si>
 </sst>
 </file>
@@ -657,14 +686,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J11:U29"/>
+  <dimension ref="E8:U29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
     <col min="10" max="10" width="23.42578125" customWidth="1"/>
     <col min="11" max="11" width="26.140625" customWidth="1"/>
     <col min="13" max="13" width="23.42578125" customWidth="1"/>
@@ -678,7 +710,35 @@
     <col min="21" max="21" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="13:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="I8" s="5"/>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="I9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="I10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="I11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="N11" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,7 +750,13 @@
       </c>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="13:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="M12" s="5" t="s">
         <v>27</v>
       </c>
@@ -710,7 +776,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="13:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:19" x14ac:dyDescent="0.25">
       <c r="M13" s="5" t="s">
         <v>26</v>
       </c>
@@ -730,7 +796,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="13:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
       <c r="O14" s="6" t="s">
         <v>24</v>
       </c>
@@ -744,7 +813,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="13:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="O15" s="6" t="s">
         <v>29</v>
       </c>
@@ -752,7 +824,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="13:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="O16" s="6" t="s">
         <v>23</v>
       </c>
@@ -760,7 +835,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="O17" s="6" t="s">
         <v>23</v>
       </c>
@@ -768,7 +846,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="O18" s="6" t="s">
         <v>31</v>
       </c>
@@ -776,7 +857,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="O19" s="6" t="s">
         <v>28</v>
       </c>
@@ -788,7 +872,10 @@
       </c>
       <c r="U19" s="5"/>
     </row>
-    <row r="20" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="O20" s="6" t="s">
         <v>28</v>
       </c>
@@ -802,7 +889,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="O21" s="6" t="s">
         <v>26</v>
       </c>
@@ -816,7 +906,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="T22" s="2" t="s">
         <v>19</v>
       </c>
@@ -824,7 +923,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="K23" s="2" t="s">
         <v>14</v>
       </c>
@@ -835,7 +937,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:21" x14ac:dyDescent="0.25">
       <c r="J24" s="5" t="s">
         <v>27</v>
       </c>
@@ -849,7 +951,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:21" x14ac:dyDescent="0.25">
       <c r="J25" s="5" t="s">
         <v>25</v>
       </c>
@@ -857,13 +959,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:21" x14ac:dyDescent="0.25">
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:21" x14ac:dyDescent="0.25">
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="10:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:21" x14ac:dyDescent="0.25">
       <c r="O29" s="1"/>
     </row>
   </sheetData>

--- a/БД.xlsx
+++ b/БД.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Категория</t>
   </si>
@@ -148,6 +148,18 @@
   </si>
   <si>
     <t>ARTICUL</t>
+  </si>
+  <si>
+    <t>Артикулы</t>
+  </si>
+  <si>
+    <t>ARTICUL_NAME</t>
+  </si>
+  <si>
+    <t>ITEM_ARTICUL</t>
+  </si>
+  <si>
+    <t>PK VARCHAR2(30)</t>
   </si>
 </sst>
 </file>
@@ -185,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,11 +220,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -225,6 +261,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -244,50 +282,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Прямая соединительная линия 3"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16087725" y="2152650"/>
-          <a:ext cx="723900" cy="257175"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -398,6 +392,94 @@
         <a:xfrm>
           <a:off x="16078200" y="2200275"/>
           <a:ext cx="3752850" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Прямая соединительная линия 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14668500" y="4124326"/>
+          <a:ext cx="1647825" cy="1895474"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14687550" y="2409825"/>
+          <a:ext cx="3724275" cy="3609975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -686,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E8:U29"/>
+  <dimension ref="E8:U33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,10 +872,10 @@
         <v>5</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="5:19" x14ac:dyDescent="0.25">
@@ -930,6 +1012,7 @@
       <c r="K23" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="P23" s="9"/>
       <c r="T23" s="2" t="s">
         <v>20</v>
       </c>
@@ -967,6 +1050,23 @@
     </row>
     <row r="29" spans="5:21" x14ac:dyDescent="0.25">
       <c r="O29" s="1"/>
+    </row>
+    <row r="31" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="N31" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="5:21" x14ac:dyDescent="0.25">
+      <c r="M32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M33" s="6"/>
+      <c r="N33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
